--- a/FileDBExcelSheet.xlsx
+++ b/FileDBExcelSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>DeviceId</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>http://localhost:8080/downloadFile/cb2b1c5d-f459-45d3-9400-8bc981f50c99</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/downloadFile/82f181eb-a43f-4409-9517-f77809e83bd4</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +278,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -733,13 +742,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,9 +1077,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.5714285714286" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="72.7142857142857" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="15.2857142857143" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="13.5714285714286" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="72.7142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1116,7 +1126,9 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" t="s" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
@@ -1225,6 +1237,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
